--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H2">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I2">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J2">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +564,22 @@
         <v>15.7807</v>
       </c>
       <c r="O2">
-        <v>0.8086411516342948</v>
+        <v>0.9923255699668696</v>
       </c>
       <c r="P2">
-        <v>0.860425445697513</v>
+        <v>0.9948705915491572</v>
       </c>
       <c r="Q2">
-        <v>1.2978678908</v>
+        <v>0.7099368713666666</v>
       </c>
       <c r="R2">
-        <v>11.6808110172</v>
+        <v>6.3894318423</v>
       </c>
       <c r="S2">
-        <v>0.03658861241664248</v>
+        <v>0.04123454623957951</v>
       </c>
       <c r="T2">
-        <v>0.04608112334668311</v>
+        <v>0.05005614481418792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.246732</v>
+        <v>0.134963</v>
       </c>
       <c r="H3">
-        <v>0.740196</v>
+        <v>0.404889</v>
       </c>
       <c r="I3">
-        <v>0.0452470324354573</v>
+        <v>0.04155344524776902</v>
       </c>
       <c r="J3">
-        <v>0.05355620708000676</v>
+        <v>0.05031422703554165</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.05782766666666667</v>
+        <v>0.0406815</v>
       </c>
       <c r="N3">
-        <v>0.173483</v>
+        <v>0.081363</v>
       </c>
       <c r="O3">
-        <v>0.008889687587304263</v>
+        <v>0.007674430033130447</v>
       </c>
       <c r="P3">
-        <v>0.009458971249433908</v>
+        <v>0.005129408450842744</v>
       </c>
       <c r="Q3">
-        <v>0.014267935852</v>
+        <v>0.0054904972845</v>
       </c>
       <c r="R3">
-        <v>0.128411422668</v>
+        <v>0.032942983707</v>
       </c>
       <c r="S3">
-        <v>0.0004022319826038382</v>
+        <v>0.0003188990081895202</v>
       </c>
       <c r="T3">
-        <v>0.0005065866229985126</v>
+        <v>0.0002580822213537278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.246732</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H4">
-        <v>0.740196</v>
+        <v>1.35167</v>
       </c>
       <c r="I4">
-        <v>0.0452470324354573</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J4">
-        <v>0.05355620708000676</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.174506</v>
+        <v>5.260233333333333</v>
       </c>
       <c r="N4">
-        <v>2.349012</v>
+        <v>15.7807</v>
       </c>
       <c r="O4">
-        <v>0.1805535656418389</v>
+        <v>0.9923255699668696</v>
       </c>
       <c r="P4">
-        <v>0.12807731577489</v>
+        <v>0.9948705915491572</v>
       </c>
       <c r="Q4">
-        <v>0.289788214392</v>
+        <v>2.370033196555555</v>
       </c>
       <c r="R4">
-        <v>1.738729286352</v>
+        <v>21.330298769</v>
       </c>
       <c r="S4">
-        <v>0.008169513040933754</v>
+        <v>0.137656244342653</v>
       </c>
       <c r="T4">
-        <v>0.006859335245891426</v>
+        <v>0.1671060198251703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.246732</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H5">
-        <v>0.740196</v>
+        <v>1.35167</v>
       </c>
       <c r="I5">
-        <v>0.0452470324354573</v>
+        <v>0.1387208477831009</v>
       </c>
       <c r="J5">
-        <v>0.05355620708000676</v>
+        <v>0.1679675942224426</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.012461</v>
+        <v>0.0406815</v>
       </c>
       <c r="N5">
-        <v>0.037383</v>
+        <v>0.081363</v>
       </c>
       <c r="O5">
-        <v>0.001915595136562057</v>
+        <v>0.007674430033130447</v>
       </c>
       <c r="P5">
-        <v>0.002038267278163208</v>
+        <v>0.005129408450842744</v>
       </c>
       <c r="Q5">
-        <v>0.003074527452</v>
+        <v>0.018329321035</v>
       </c>
       <c r="R5">
-        <v>0.027670747068</v>
+        <v>0.10997592621</v>
       </c>
       <c r="S5">
-        <v>8.667499527722763E-05</v>
+        <v>0.001064603440447947</v>
       </c>
       <c r="T5">
-        <v>0.0001091618644337105</v>
+        <v>0.0008615743972723221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4505566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H6">
-        <v>1.35167</v>
+        <v>1.119339</v>
       </c>
       <c r="I6">
-        <v>0.08262548883273427</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J6">
-        <v>0.09779885114730792</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,27 +812,27 @@
         <v>15.7807</v>
       </c>
       <c r="O6">
-        <v>0.8086411516342948</v>
+        <v>0.9923255699668696</v>
       </c>
       <c r="P6">
-        <v>0.860425445697513</v>
+        <v>0.9948705915491572</v>
       </c>
       <c r="Q6">
-        <v>2.370033196555555</v>
+        <v>1.9626614397</v>
       </c>
       <c r="R6">
-        <v>21.330298769</v>
+        <v>17.6639529573</v>
       </c>
       <c r="S6">
-        <v>0.06681437044404881</v>
+        <v>0.113995282048326</v>
       </c>
       <c r="T6">
-        <v>0.08414862008712715</v>
+        <v>0.1383831002575231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4505566666666667</v>
+        <v>0.373113</v>
       </c>
       <c r="H7">
-        <v>1.35167</v>
+        <v>1.119339</v>
       </c>
       <c r="I7">
-        <v>0.08262548883273427</v>
+        <v>0.1148768967548946</v>
       </c>
       <c r="J7">
-        <v>0.09779885114730792</v>
+        <v>0.1390965834481454</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.05782766666666667</v>
+        <v>0.0406815</v>
       </c>
       <c r="N7">
-        <v>0.173483</v>
+        <v>0.081363</v>
       </c>
       <c r="O7">
-        <v>0.008889687587304263</v>
+        <v>0.007674430033130447</v>
       </c>
       <c r="P7">
-        <v>0.009458971249433908</v>
+        <v>0.005129408450842744</v>
       </c>
       <c r="Q7">
-        <v>0.02605464073444444</v>
+        <v>0.0151787965095</v>
       </c>
       <c r="R7">
-        <v>0.23449176661</v>
+        <v>0.09107277905699999</v>
       </c>
       <c r="S7">
-        <v>0.0007345147824713048</v>
+        <v>0.0008816147065685888</v>
       </c>
       <c r="T7">
-        <v>0.000925076521230052</v>
+        <v>0.00071348319062227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.696606</v>
+      </c>
+      <c r="H8">
+        <v>3.393212</v>
+      </c>
+      <c r="I8">
+        <v>0.5223640888838897</v>
+      </c>
+      <c r="J8">
+        <v>0.4216633174715153</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.4505566666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.35167</v>
-      </c>
-      <c r="I8">
-        <v>0.08262548883273427</v>
-      </c>
-      <c r="J8">
-        <v>0.09779885114730792</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.174506</v>
+        <v>5.260233333333333</v>
       </c>
       <c r="N8">
-        <v>2.349012</v>
+        <v>15.7807</v>
       </c>
       <c r="O8">
-        <v>0.1805535656418389</v>
+        <v>0.9923255699668696</v>
       </c>
       <c r="P8">
-        <v>0.12807731577489</v>
+        <v>0.9948705915491572</v>
       </c>
       <c r="Q8">
-        <v>0.52918150834</v>
+        <v>8.924543434733334</v>
       </c>
       <c r="R8">
-        <v>3.17508905004</v>
+        <v>53.5472606084</v>
       </c>
       <c r="S8">
-        <v>0.01491832662165011</v>
+        <v>0.5183552422319304</v>
       </c>
       <c r="T8">
-        <v>0.01252581434081522</v>
+        <v>0.4195004340874665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4505566666666667</v>
+        <v>1.696606</v>
       </c>
       <c r="H9">
-        <v>1.35167</v>
+        <v>3.393212</v>
       </c>
       <c r="I9">
-        <v>0.08262548883273427</v>
+        <v>0.5223640888838897</v>
       </c>
       <c r="J9">
-        <v>0.09779885114730792</v>
+        <v>0.4216633174715153</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.012461</v>
+        <v>0.0406815</v>
       </c>
       <c r="N9">
-        <v>0.037383</v>
+        <v>0.081363</v>
       </c>
       <c r="O9">
-        <v>0.001915595136562057</v>
+        <v>0.007674430033130447</v>
       </c>
       <c r="P9">
-        <v>0.002038267278163208</v>
+        <v>0.005129408450842744</v>
       </c>
       <c r="Q9">
-        <v>0.005614386623333334</v>
+        <v>0.069020476989</v>
       </c>
       <c r="R9">
-        <v>0.05052947961</v>
+        <v>0.276081907956</v>
       </c>
       <c r="S9">
-        <v>0.0001582769845640483</v>
+        <v>0.004008846651959346</v>
       </c>
       <c r="T9">
-        <v>0.000199340198135512</v>
+        <v>0.002162883384048778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1147566666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H10">
-        <v>0.34427</v>
+        <v>1.778097</v>
       </c>
       <c r="I10">
-        <v>0.02104469067186919</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J10">
-        <v>0.02490934213564235</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1060,27 +1060,27 @@
         <v>15.7807</v>
       </c>
       <c r="O10">
-        <v>0.8086411516342948</v>
+        <v>0.9923255699668696</v>
       </c>
       <c r="P10">
-        <v>0.860425445697513</v>
+        <v>0.9948705915491572</v>
       </c>
       <c r="Q10">
-        <v>0.6036468432222222</v>
+        <v>3.117735036433333</v>
       </c>
       <c r="R10">
-        <v>5.432821589</v>
+        <v>28.0596153279</v>
       </c>
       <c r="S10">
-        <v>0.0170176029006878</v>
+        <v>0.1810842551043807</v>
       </c>
       <c r="T10">
-        <v>0.02143263180909191</v>
+        <v>0.2198248925648094</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,675 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1147566666666667</v>
+        <v>0.592699</v>
       </c>
       <c r="H11">
-        <v>0.34427</v>
+        <v>1.778097</v>
       </c>
       <c r="I11">
-        <v>0.02104469067186919</v>
+        <v>0.1824847213303457</v>
       </c>
       <c r="J11">
-        <v>0.02490934213564235</v>
+        <v>0.220958277822355</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.05782766666666667</v>
+        <v>0.0406815</v>
       </c>
       <c r="N11">
-        <v>0.173483</v>
+        <v>0.081363</v>
       </c>
       <c r="O11">
-        <v>0.008889687587304263</v>
+        <v>0.007674430033130447</v>
       </c>
       <c r="P11">
-        <v>0.009458971249433908</v>
+        <v>0.005129408450842744</v>
       </c>
       <c r="Q11">
-        <v>0.006636110267777777</v>
+        <v>0.0241118843685</v>
       </c>
       <c r="R11">
-        <v>0.05972499240999999</v>
+        <v>0.144671306211</v>
       </c>
       <c r="S11">
-        <v>0.0001870807254443733</v>
+        <v>0.001400466225965045</v>
       </c>
       <c r="T11">
-        <v>0.0002356167511033536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1147566666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.34427</v>
-      </c>
-      <c r="I12">
-        <v>0.02104469067186919</v>
-      </c>
-      <c r="J12">
-        <v>0.02490934213564235</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.174506</v>
-      </c>
-      <c r="N12">
-        <v>2.349012</v>
-      </c>
-      <c r="O12">
-        <v>0.1805535656418389</v>
-      </c>
-      <c r="P12">
-        <v>0.12807731577489</v>
-      </c>
-      <c r="Q12">
-        <v>0.13478239354</v>
-      </c>
-      <c r="R12">
-        <v>0.8086943612399999</v>
-      </c>
-      <c r="S12">
-        <v>0.003799693938635528</v>
-      </c>
-      <c r="T12">
-        <v>0.003190321678451439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1147566666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.34427</v>
-      </c>
-      <c r="I13">
-        <v>0.02104469067186919</v>
-      </c>
-      <c r="J13">
-        <v>0.02490934213564235</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.012461</v>
-      </c>
-      <c r="N13">
-        <v>0.037383</v>
-      </c>
-      <c r="O13">
-        <v>0.001915595136562057</v>
-      </c>
-      <c r="P13">
-        <v>0.002038267278163208</v>
-      </c>
-      <c r="Q13">
-        <v>0.001429982823333333</v>
-      </c>
-      <c r="R13">
-        <v>0.01286984541</v>
-      </c>
-      <c r="S13">
-        <v>4.03131071014855E-05</v>
-      </c>
-      <c r="T13">
-        <v>5.077189699565184E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.5380765</v>
-      </c>
-      <c r="H14">
-        <v>5.076153</v>
-      </c>
-      <c r="I14">
-        <v>0.465446029372647</v>
-      </c>
-      <c r="J14">
-        <v>0.3672804246953477</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>5.260233333333333</v>
-      </c>
-      <c r="N14">
-        <v>15.7807</v>
-      </c>
-      <c r="O14">
-        <v>0.8086411516342948</v>
-      </c>
-      <c r="P14">
-        <v>0.860425445697513</v>
-      </c>
-      <c r="Q14">
-        <v>13.35087460785</v>
-      </c>
-      <c r="R14">
-        <v>80.10524764709999</v>
-      </c>
-      <c r="S14">
-        <v>0.3763788132155071</v>
-      </c>
-      <c r="T14">
-        <v>0.3160174231144664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.5380765</v>
-      </c>
-      <c r="H15">
-        <v>5.076153</v>
-      </c>
-      <c r="I15">
-        <v>0.465446029372647</v>
-      </c>
-      <c r="J15">
-        <v>0.3672804246953477</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.05782766666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.173483</v>
-      </c>
-      <c r="O15">
-        <v>0.008889687587304263</v>
-      </c>
-      <c r="P15">
-        <v>0.009458971249433908</v>
-      </c>
-      <c r="Q15">
-        <v>0.1467710418165</v>
-      </c>
-      <c r="R15">
-        <v>0.8806262508989999</v>
-      </c>
-      <c r="S15">
-        <v>0.004137669789874075</v>
-      </c>
-      <c r="T15">
-        <v>0.003474094977673169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.5380765</v>
-      </c>
-      <c r="H16">
-        <v>5.076153</v>
-      </c>
-      <c r="I16">
-        <v>0.465446029372647</v>
-      </c>
-      <c r="J16">
-        <v>0.3672804246953477</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.174506</v>
-      </c>
-      <c r="N16">
-        <v>2.349012</v>
-      </c>
-      <c r="O16">
-        <v>0.1805535656418389</v>
-      </c>
-      <c r="P16">
-        <v>0.12807731577489</v>
-      </c>
-      <c r="Q16">
-        <v>2.980986077709</v>
-      </c>
-      <c r="R16">
-        <v>11.923944310836</v>
-      </c>
-      <c r="S16">
-        <v>0.08403794021706751</v>
-      </c>
-      <c r="T16">
-        <v>0.04704029093164176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.5380765</v>
-      </c>
-      <c r="H17">
-        <v>5.076153</v>
-      </c>
-      <c r="I17">
-        <v>0.465446029372647</v>
-      </c>
-      <c r="J17">
-        <v>0.3672804246953477</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.012461</v>
-      </c>
-      <c r="N17">
-        <v>0.037383</v>
-      </c>
-      <c r="O17">
-        <v>0.001915595136562057</v>
-      </c>
-      <c r="P17">
-        <v>0.002038267278163208</v>
-      </c>
-      <c r="Q17">
-        <v>0.0316269712665</v>
-      </c>
-      <c r="R17">
-        <v>0.189761827599</v>
-      </c>
-      <c r="S17">
-        <v>0.0008916061501983627</v>
-      </c>
-      <c r="T17">
-        <v>0.0007486156715664133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>2.102876666666667</v>
-      </c>
-      <c r="H18">
-        <v>6.308630000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.3856367586872924</v>
-      </c>
-      <c r="J18">
-        <v>0.4564551749416954</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>5.260233333333333</v>
-      </c>
-      <c r="N18">
-        <v>15.7807</v>
-      </c>
-      <c r="O18">
-        <v>0.8086411516342948</v>
-      </c>
-      <c r="P18">
-        <v>0.860425445697513</v>
-      </c>
-      <c r="Q18">
-        <v>11.06162193788889</v>
-      </c>
-      <c r="R18">
-        <v>99.55459744100001</v>
-      </c>
-      <c r="S18">
-        <v>0.3118417526574088</v>
-      </c>
-      <c r="T18">
-        <v>0.3927456473401445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>2.102876666666667</v>
-      </c>
-      <c r="H19">
-        <v>6.308630000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.3856367586872924</v>
-      </c>
-      <c r="J19">
-        <v>0.4564551749416954</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05782766666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.173483</v>
-      </c>
-      <c r="O19">
-        <v>0.008889687587304263</v>
-      </c>
-      <c r="P19">
-        <v>0.009458971249433908</v>
-      </c>
-      <c r="Q19">
-        <v>0.1216044509211111</v>
-      </c>
-      <c r="R19">
-        <v>1.09444005829</v>
-      </c>
-      <c r="S19">
-        <v>0.003428190306910672</v>
-      </c>
-      <c r="T19">
-        <v>0.004317596376428821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>2.102876666666667</v>
-      </c>
-      <c r="H20">
-        <v>6.308630000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.3856367586872924</v>
-      </c>
-      <c r="J20">
-        <v>0.4564551749416954</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.174506</v>
-      </c>
-      <c r="N20">
-        <v>2.349012</v>
-      </c>
-      <c r="O20">
-        <v>0.1805535656418389</v>
-      </c>
-      <c r="P20">
-        <v>0.12807731577489</v>
-      </c>
-      <c r="Q20">
-        <v>2.469841262260001</v>
-      </c>
-      <c r="R20">
-        <v>14.81904757356</v>
-      </c>
-      <c r="S20">
-        <v>0.06962809182355204</v>
-      </c>
-      <c r="T20">
-        <v>0.05846155357809018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>2.102876666666667</v>
-      </c>
-      <c r="H21">
-        <v>6.308630000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.3856367586872924</v>
-      </c>
-      <c r="J21">
-        <v>0.4564551749416954</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.012461</v>
-      </c>
-      <c r="N21">
-        <v>0.037383</v>
-      </c>
-      <c r="O21">
-        <v>0.001915595136562057</v>
-      </c>
-      <c r="P21">
-        <v>0.002038267278163208</v>
-      </c>
-      <c r="Q21">
-        <v>0.02620394614333334</v>
-      </c>
-      <c r="R21">
-        <v>0.23583551529</v>
-      </c>
-      <c r="S21">
-        <v>0.0007387238994209326</v>
-      </c>
-      <c r="T21">
-        <v>0.0009303776470319201</v>
+        <v>0.001133385257545647</v>
       </c>
     </row>
   </sheetData>
